--- a/sevenrmartsupermarket/src/main/resources/ExcelFiles/SubCategory.xlsx
+++ b/sevenrmartsupermarket/src/main/resources/ExcelFiles/SubCategory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository2\sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFF7DB-1CCC-483B-9A1B-8122B2BA592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BCD5AA-5C06-4C0D-B475-B75E85AA2B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="2592" windowWidth="11496" windowHeight="8880" xr2:uid="{90EBA962-6171-43EB-A030-FD37FCFD0B26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90EBA962-6171-43EB-A030-FD37FCFD0B26}"/>
   </bookViews>
   <sheets>
     <sheet name="CategoryData" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,13 +30,13 @@
     <t>Vegetables</t>
   </si>
   <si>
-    <t>radish</t>
-  </si>
-  <si>
     <t>Grocery</t>
   </si>
   <si>
-    <t>Moongdal</t>
+    <t>brocoli</t>
+  </si>
+  <si>
+    <t>dal</t>
   </si>
 </sst>
 </file>
@@ -400,7 +391,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,12 +401,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
